--- a/Excel/dither.xlsx
+++ b/Excel/dither.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -136,42 +136,9 @@
     <t>Whenever processing audio, the highest quality will be achieved by using 32-bit (float) throughout. Note that 32-bit audio files are twice the size of 16-bit audio files.</t>
   </si>
   <si>
-    <t>एकतर - धोक्याचे मॅन्युअल</t>
-  </si>
-  <si>
-    <t>एकतर</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>"ऑर्डर" म्हणजे डिजिटल ऑडिओची बिट खोली कमी करताना उद्भवणार्‍या क्वान्टायझेशन त्रुटी (राउंडिंग एरर्स) चे जाणूनबुजून यादृच्छिकरण. सामान्य अंकगणित गोलाकार चक्रीय नमुने तयार करु शकतात जे कठोर कर्णमधुर आवाज म्हणून ऐकू शकतात. एकतर राउंडिंग यादृच्छिक करते जेणेकरून बिट-रिडक्शन प्रक्रियेचे श्रवण प्रभाव कमी होईल. मोठ्या प्रमाणात विस्तारित केल्याशिवाय स्वत: ला आवाज ऐकू येत नाही.</t>
-  </si>
-  <si>
     <t>सामग्री</t>
   </si>
   <si>
-    <t>1 डाईटर सेटिंग्ज</t>
-  </si>
-  <si>
-    <t>2 डाउनसाम्पलिंग</t>
-  </si>
-  <si>
-    <t>3 निर्यातीवर लागू करा - तपशीलवार स्पष्टीकरण</t>
-  </si>
-  <si>
-    <t>1.१ "चुका" कोठून आल्या आहेत</t>
-  </si>
-  <si>
-    <t>डाईटर सेटिंग्ज</t>
-  </si>
-  <si>
-    <t>धडपड मध्ये आपली प्राथमिकतेच्या गुणवत्तेच्या उपखंडातून नंतरच्या सेटिंग्ज नियंत्रित केल्या जाऊ शकतात.</t>
-  </si>
-  <si>
     <t>डाउनसॅम्पलिंग</t>
   </si>
   <si>
@@ -248,6 +215,39 @@
   </si>
   <si>
     <t>जेव्हा जेव्हा ऑडिओवर प्रक्रिया होते तेव्हा संपूर्ण 32-बिट (फ्लोट) वापरून सर्वोच्च गुणवत्ता प्राप्त केली जाईल. लक्षात घ्या की 32-बिट ऑडिओ फायली 16-बिट ऑडिओ फायलीच्या दुप्पट आहेत.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डाएथर - ओड्यासिटी माहितीपुस्तिका </t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>डाएथर</t>
+  </si>
+  <si>
+    <t>डाएथर म्हणजे डिजिटल  ध्वनीची बिट खोली कमी करताना उद्भवणार्‍या क्वान्टायझेशन त्रुटी (राउंडिंग एरर्स) चे जाणूनबुजून यादृच्छिकरण. सामान्य अंकगणित गोलाकार चक्रीय नमुने तयार करु शकतात जे कठोर कर्णमधुर आवाज म्हणून ऐकू शकतात. एकतर राउंडिंग यादृच्छिक करते जेणेकरून बिट-रिडक्शन प्रक्रियेचे श्रवण प्रभाव कमी होईल. मोठ्या प्रमाणात विस्तारित केल्याशिवाय स्वत: ला आवाज ऐकू येत नाही.</t>
+  </si>
+  <si>
+    <t>१ डाएथर सेटिंग्ज</t>
+  </si>
+  <si>
+    <t>२ डाउनसाम्पलिंग</t>
+  </si>
+  <si>
+    <t>३ डाएथर निर्यातीवर लागू करा - तपशीलवार स्पष्टीकरण</t>
+  </si>
+  <si>
+    <t>३.१ "चुका" कोठून आल्या आहेत</t>
+  </si>
+  <si>
+    <t>डाएथर सेटिंग्ज</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये आपली प्राथमिकतेच्या गुणवत्तेच्या उपखंडातून नंतरच्या सेटिंग्ज नियंत्रित केल्या जाऊ शकतात.</t>
   </si>
 </sst>
 </file>
@@ -306,11 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,9 +608,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -627,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -638,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -649,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -660,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -670,8 +677,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -682,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -693,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -704,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -715,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -726,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -737,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -748,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -759,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -770,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -781,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -792,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -803,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -814,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -825,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -836,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -847,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -858,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -869,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -880,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -891,7 +898,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -902,7 +909,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -913,7 +920,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -924,7 +931,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -935,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -946,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,7 +964,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -968,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -979,7 +986,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -990,7 +997,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1001,7 +1008,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1012,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1023,7 +1030,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1034,10 +1041,11 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/dither.xlsx
+++ b/Excel/dither.xlsx
@@ -76,12 +76,6 @@
     <t>You can choose the type of dither to be used in Audacity when performing operations requiring downsampling, or you can turn dither off altogether by setting it to none. The dither settings are again in the Quality pane of Preferences. The setting for "real-time dither" applies to dithering done when playing back, and that for "high-quality dither" to file writing (editing or exporting). "Real-time dither" is disabled by default (set to "None"), so as to minimize the load on the computer processor during play and record. The "real-time dither" setting has no affect on the project audio data or quality of exported tracks.</t>
   </si>
   <si>
-    <t>"Rectangular", "Triangular" and "Shaped" types of dither are simply different methods for randomizing the rounding process. The rectangular method can be thought of as like the roll of a die - any number has the same random probability of surfacing. The character of rectangular dither noise is low level white noise. The triangular method is characterized as a quieter, more constant, and higher pitched hiss than rectangular noise (sometimes called blue noise). Shaped</t>
-  </si>
-  <si>
-    <t>dither is noise with a carefully contoured frequency content that puts most of the randomization at frequencies we can hear least easily. Shaped dither is the least audible at normal levels of amplification and is the default for the "High-quality conversion" setting.</t>
-  </si>
-  <si>
     <t>Dither applied on Export - detailed explanation</t>
   </si>
   <si>
@@ -142,81 +136,15 @@
     <t>डाउनसॅम्पलिंग</t>
   </si>
   <si>
-    <t>फाईलला कमी प्रमाणात खोलीत रूपांतरित करताना किंवा रीअल-टाइममध्ये जेव्हा ऑडसिटी ट्रॅकच्या थोडी खोलीपेक्षा कमी खोलीत ऑडिओ प्ले करते तेव्हा डाउनसंपलिंग होते. ऑडसिटी प्रोजेक्ट्सची थोडी खोली प्राधान्यांच्या गुणवत्ता उपखंडावरील "डीफॉल्ट नमुना स्वरूप" वर सेट केली गेली आहे.</t>
-  </si>
-  <si>
-    <t>जेव्हा 32-बिट फ्लोट किंवा 24-बिट प्रोजेक्ट 16-बिट फाइल स्वरूपनात निर्यात केला जातो तेव्हा डाउनसाम्पलिंगचे एक उदाहरण आहे.</t>
-  </si>
-  <si>
-    <t>16-बिट किंवा 24-बिट ट्रॅकवर प्रक्रिया करताना डाउनसॅम्पलिंग देखील उद्भवते कारण ऑडॅसिटी प्रक्रिया 32-बिट फ्लोट स्वरूपात होते, जे नंतर 16 किंवा 24-बिट ट्रॅक स्वरूपात रूपांतरित होते (डाउनसंपल केलेले). 32-बिट फ्लोट फॉर्मेट ट्रॅक (डीफॉल्ट) सह कार्य करून वारंवार डाउनसंपलिंग टाळता येते, यामुळे अनावश्यक रूपांतरण नुकसान टाळले जाते. 32-बिट फ्लोट प्रोजेक्टमध्ये कधीही डाइयॉईंग लागू केले जात नाही कारण डाउनसाम्पलिंग होत नाही.</t>
-  </si>
-  <si>
-    <t>S२-बिट फ्लोट प्रोजेक्टच्या प्लेबॅकदरम्यान डाऊनसाम्पलिंग फ्लायवर उद्भवते, कारण ऑडिओ इंटरफेस एकतर 16-बिट किंवा 24-बिटवर कार्य करतात.</t>
-  </si>
-  <si>
-    <t>डाउनसाम्पलिंगची आवश्यकता असताना ऑपरेशन करताना ऑडॅसिटीमध्ये वापरल्या जाणार्‍या डोईथचा प्रकार आपण निवडू शकता किंवा आपण काहीही सेट न करता पूर्णपणे मागे जाऊ शकता. डाईटर सेटिंग्ज पुन्हा प्राधान्यांच्या गुणवत्ता उपखंडात आहेत. "रीअल-टाईम डाइन्थ" ची सेटिंग परत खेळताना केल्या जाणाither्या डाइनिंगला आणि फाइल लिहिण्यासाठी "संपादन किंवा निर्यात" "उच्च-गुणवत्तेच्या "साठी लागू आहे. "रीअल-टाइम डाईथ" डीफॉल्टनुसार अक्षम केले जाते ("काहीही नाही" वर सेट केले जाते), जेणेकरून प्ले आणि रेकॉर्ड दरम्यान संगणक प्रोसेसरवरील भार कमी होईल. "रीअल-टाइम डाईथ" सेटिंगचा प्रकल्प ऑडिओ डेटा किंवा निर्यात केलेल्या ट्रॅकच्या गुणवत्तेवर कोणताही परिणाम होत नाही.</t>
-  </si>
-  <si>
-    <t>"आयताकृती", "त्रिकोणी" आणि "आकाराचे" प्रकार या गोलाकार प्रक्रियेचे यादृच्छिकरण करण्यासाठी फक्त भिन्न पद्धती आहेत. आयताकृती पध्दतीचा मरण करण्याच्या रोल प्रमाणेच विचार केला जाऊ शकतो - कोणत्याही संख्येवर सरफेसिंगची यादृच्छिक संभाव्यता समान असते. आयताकृती दोना आवाजांचे वैशिष्ट्य म्हणजे निम्न स्तरीय पांढरा आवाज. त्रिकोणी पद्धत आयताकृती आवाजापेक्षा शांत, अधिक स्थिर आणि उच्च पिच फिसफूस म्हणून दर्शविली जाते (कधीकधी त्याला निळा आवाज म्हणतात). आकार</t>
-  </si>
-  <si>
-    <t>एकतर काळजीपूर्वक तयार केलेली वारंवारिता सामग्रीसह आवाज आहे ज्यामुळे आम्ही सहजपणे सहजपणे ऐकू शकतो अशा वारंवारतांवर बर्‍याच यादृच्छिकरण ठेवतो. आकारात वाढ होण्याच्या सर्वसाधारण स्तरावर कमीतकमी ऐकण्यायोग्य आहे आणि "उच्च-गुणवत्तेचे रूपांतरण" सेटिंग करीता डीफॉल्ट आहे.</t>
-  </si>
-  <si>
-    <t>निर्यात करा वर लागू करा - तपशीलवार स्पष्टीकरण</t>
-  </si>
-  <si>
-    <t>डाइअर केवळ उच्च बिट खोलीपासून कमी बिट खोलीत रूपांतरित करतानाच लागू केले जाते. डब्ल्यूएव्ही किंवा इतर कॉम्प्रेसप्रेस ऑडिओ स्वरूपात निर्यात करणे सर्व परिस्थितींमध्ये अक्षरशः हानी नसते. तथापि ऑडसिटी प्राधान्यांमधील सेटिंग्ज (खाली पहा) च्या आधारावर काही प्रकारच्या कॉम्प्रेसप्रेस ऑडिओ एक्सपोर्टसह ऑडिओ डेटामध्ये खूपच लहान बदल होऊ शकतात.</t>
-  </si>
-  <si>
-    <t>32-बिट पीसीएम डब्ल्यूएव्ही स्वरूपनात निर्यात करणे 100% हानि रहित आहे - कोठेही डाईथिंग लागू केलेले नाही.</t>
-  </si>
-  <si>
-    <t>24-बिट पीसीएम डब्ल्यूएव्ही स्वरूपनात निर्यात करणे जवळजवळ -130 डीबीच्या पीक डाईथ लेव्हलसह पातळ केले जाऊ शकते</t>
-  </si>
-  <si>
-    <t>16-बिट पीसीएम डब्ल्यूएव्ही स्वरूपात निर्यात करणे जवळजवळ -80 डीबीच्या पीक डाईथ पातळीसह डाईट केले जाऊ शकते</t>
-  </si>
-  <si>
-    <t>16-बिटवर निर्यात करताना, maximum32768 ते +32767 च्या स्केलवर जास्तीत जास्त "त्रुटी" +/- 3 आहे. 16-बिट ऑडिओ केवळ या प्रमाणात जवळच्या अंकीच अचूक असू शकतात.</t>
-  </si>
-  <si>
-    <t>24-बिटवर निर्यात करताना, -8388608 ते +8388607 च्या स्केलवर जास्तीत जास्त "त्रुटी" +/- 3 असते. सध्याच्या काळात, ऑडिओ इलेक्ट्रॉनिक्सची स्थिती 24-बिट स्वरुपावर ढकलून तयार केल्यापेक्षा जास्त अयोग्य प्रदर्शन दर्शविते.</t>
-  </si>
-  <si>
     <t>"चुका" कोठून येतात</t>
   </si>
   <si>
-    <t>धृष्टता 32-बिट फ्लोट क्रमांकांचा वापर करुन गणना करते, जे अविश्वसनीय अचूकता प्रदान करते (श्रेणी ऑडिओ इंटरफेसच्या अगदी उत्कृष्ट शीर्षापेक्षा अगदी चांगले). जर ऑडसेटला रिझोल्यूशन 16-बिट पर्यंत कमी करण्याची आवश्यकता असेल तर "राउंडिंग ऑफ" त्रुटी असतील. प्रत्येक नमुना मूल्य घेऊन आणि त्यास जवळच्या १--बिट मूल्यामध्ये रूपांतरित करून जर साध्या "राउंडिंग" केले गेले तर आउटपुटमधील "स्टेपनेस" परिणाम होईल जे विशेषतः अत्यंत शांत ध्वनींनी ऐकू येईल. हे टाळण्यासाठी, ऑडॅसिटी रूपांतरणात "डाईटर" लागू करते - हे बर्‍याचदा ग्राफिक्समध्ये "अँटी-अलायझिंग" ची तुलना केली जाते जे वक्रांच्या सुस्तपणासाठी वापरले जाते. मूल्ये नेहमी जवळच्या 16-बिट मूल्याकडे वळविण्याऐवजी, डाईनिंग केल्यामुळे राउंडिंगमध्ये काही प्रमाणात यादृच्छिकता लागू होते जेणेकरून उद्भवणारे चरण टाळता येतील.</t>
-  </si>
-  <si>
-    <t>ऑडसिटीकडे 3 दिशानिर्देश कसे होते यासाठी ते वैकल्पिक अल्गोरिदम आहेत आणि ते "संपादन मेनू&gt; प्राधान्ये&gt; गुणवत्ता" मध्ये आढळतात. त्यानंतरची सेटिंग्ज "उच्च गुणवत्ता रूपांतरण" वर लागू होतात. उपलब्ध पर्याय असे आहेत: काहीही नाही (कोठेही नाही), आयत, त्रिकोण आणि आकार. या सेटिंग्जमधील फरक खूप सूक्ष्म आहेत आणि कोणताही फरक लक्षात घेण्यासाठी आपल्याला चांगल्या उपकरणांसह काळजीपूर्वक ऐकणे आवश्यक आहे. सामान्यत: "त्रिकोण" किंवा "आकार" सर्वोत्तम (व्यक्तिनिष्ठ) निकाल देईल.</t>
-  </si>
-  <si>
     <t>जर डिथर "काहीही नाही" वर सेट केले असेल तर नंतर एका साध्या गोलपासून खालच्या थोड्या खोलीत रुपांतरित केले जाईल.</t>
   </si>
   <si>
-    <t>जर हे सक्षम केले असेल तर छद्म यादृच्छिक भिन्नता अचूक रूपांतरांवर लागू केली जातील जेणेकरून गोल नेहमीच त्याच दिशेने होत नाही. गोलाकार संख्या सांख्यिकीय दृष्टिकोनातून कमी बिट खोलीवर सर्वात जवळच्या मूल्यामध्ये रूपांतरित होण्याची अधिक शक्यता असते. नमुना मूल्य अचूक संख्येच्या अगदी जवळ असेल तर ते त्या नंबरवर रूपांतरित होण्याची अधिक शक्यता असते. रूपांतरित मूल्यांवर याचा एक गुळगुळीत प्रभाव आहे, परिणामी ऑडिओ सिग्नल अगदी साध्या गोलाकारापेक्षा जास्त वाटेल. अत्यंत कमी मोठेपणाच्या पातळीवर, हे यादृच्छिकरण खूप निम्न स्तराचा आवाज म्हणून ऐकला जाऊ शकतो, परंतु संभाव्यतेच्या वक्रांचे आकार देऊन हे कमी केले जाऊ शकते, आणि म्हणूनच आवाजाची वारंवारता सामग्री.</t>
-  </si>
-  <si>
-    <t>आकारातील dither (ऑडॅसिटी डीफॉल्ट) मध्ये अन्य प्रकारांपेक्षा उच्च पीक मोठेपणा आहे, परंतु तो आवाज अत्यंत उच्च वारंवारतेच्या श्रेणीमध्ये केंद्रित आहे जेथे तो कमी ऐकू येईल.</t>
-  </si>
-  <si>
     <t>त्रिकोणाकृती आकारापेक्षा आवाजाचे कमी पीक मोठेपणा तयार करते, परंतु उच्च वारंवारतेमध्ये आवाज कमी केंद्रित केला जातो. आपण दोनदा आकारात दोनवेळा आकार लागू केल्यास त्यापेक्षा दोनदा त्रिकोण आपण लागू केल्यास आवाज गुणवत्तेत किंचित कमी होत आहे.</t>
   </si>
   <si>
-    <t>आयत एकतर त्रिकोण म्हणून समान ध्वनी मोठेपणा तयार करतो परंतु यादृच्छिकरणात अगदी कमी प्रमाणात (+/- 1 बिट च्या क्रमाने) वारंवारता वितरण अगदी समप्रमाणात असते, जसे की ते पांढर्‍या आवाजाच्या जवळपास असते. इतर दोन प्रकारांपेक्षा वेगळा, आयत निरपेक्ष शांततेत आवाज जोडत नाही.</t>
-  </si>
-  <si>
-    <t>-२-बिट ऑडिओसह ऑडसिटीमध्ये काम करताना, सामान्यत: उच्च गुणवत्तेच्या रूपांतरण सेटिंग्जमध्ये सामान्यतः सक्षम केले जाणे आवश्यक असते (ते डीफॉल्टनुसार असते). मूळ आउटपुटपेक्षा कमी आउटपुट आउटपुट असेल तरच लागू होईल. उच्च बिट खोलीपासून खालच्या थोड्या खोलीत रुपांतरित केल्याने अपरिहार्यपणे चुकीचे होऊ शकतात (कारण खालच्या भागाची खोली कमी अचूक आहे). एकलचा वापर केल्यामुळे संगीतामध्ये या चुकीच्या गोष्टी कमी लक्षात येण्यासारख्या होतात. बहुतेक प्रकरणांमध्ये, त्रिकोण किंवा आकारातील रंगाचा विशेषणात्मक परिणाम मिळतात.</t>
-  </si>
-  <si>
-    <t>नियम अपवाद आहेः आपण 16-बिटमध्ये रेकॉर्ड केले असल्यास आणि केवळ साधी संपादन करत असाल (कट, हटवा, पेस्ट करा, ट्रिम करा ...) आणि कोणतीही प्रक्रिया न केल्यास (वर्धित करा, समान करा, वारंवारता फिल्टर ...) सर्वात जास्त अचूकतेसाठी "काहीही नाही" वर सेट केले जाऊ शकते. या प्रकरणात, निर्यात करण्यापूर्वी 32-बिट ऑपरेशन्स नसल्यामुळे तिथून पुढे जाण्याचा कोणताही फायदा होणार नाही. 16-बिट वर 16-बिट ट्रॅक निर्यात करणे "एकतर नाही" वर सेट केल्याने नुकसान होणार नाही. 24-बिट ट्रॅक वरुन अक्षम केलेल्या 24-बिट फाईल स्वरूपनात 24-बिट ट्रॅकमधून निर्यात केल्यास हे लागू होते.</t>
-  </si>
-  <si>
-    <t>जेव्हा जेव्हा ऑडिओवर प्रक्रिया होते तेव्हा संपूर्ण 32-बिट (फ्लोट) वापरून सर्वोच्च गुणवत्ता प्राप्त केली जाईल. लक्षात घ्या की 32-बिट ऑडिओ फायली 16-बिट ऑडिओ फायलीच्या दुप्पट आहेत.</t>
-  </si>
-  <si>
     <t xml:space="preserve">डाएथर - ओड्यासिटी माहितीपुस्तिका </t>
   </si>
   <si>
@@ -248,6 +176,78 @@
   </si>
   <si>
     <t>ओड्यासिटीमध्ये आपली प्राथमिकतेच्या गुणवत्तेच्या उपखंडातून नंतरच्या सेटिंग्ज नियंत्रित केल्या जाऊ शकतात.</t>
+  </si>
+  <si>
+    <t>धरिकेला कमी प्रमाणात खोलीत रूपांतरित करताना किंवा रीअल-टाइममध्ये जेव्हा ओड्यासिटी ध्वनिपट्टाच्या थोडी खोलीपेक्षा कमी खोलीत ध्वनी प्ले करते तेव्हा डाउनसॅम्पलिंग होते. ओड्यासिटी प्रोजेक्ट्सची थोडी खोली प्राधान्यांच्या गुणवत्ता उपखंडावरील "डीफॉल्ट नमुना स्वरूप" वर सेट केली गेली आहे.</t>
+  </si>
+  <si>
+    <t>जेव्हा ३२-बिट फ्लोट किंवा २४-बिट प्रोजेक्ट १६-बिट फाइल स्वरूपनात निर्यात केला जातो तेव्हा डाउनसाम्पलिंगचे एक उदाहरण आहे.</t>
+  </si>
+  <si>
+    <t>१६-बिट किंवा २४-बिट ध्वनिपट्टावर प्रक्रिया करताना डाउनसॅम्पलिंग देखील उद्भवते कारण ओड्यासिटी प्रक्रिया ३२-बिट फ्लोट स्वरूपात होते, जे नंतर १६ किंवा २४-बिट ध्वनिपट्टा स्वरूपात रूपांतरित होते (डाउनसंपल केलेले). ३२-बिट फ्लोट फॉर्मेट ध्वनिपट्टा (डीफॉल्ट) सह कार्य करून वारंवार डाउनसॅम्पलिंग टाळता येते, यामुळे अनावश्यक रूपांतरण नुकसान टाळले जाते. ३२-बिट फ्लोट प्रोजेक्टमध्ये कधीही डाइयॉईंग लागू केले जात नाही कारण डाउनसॅम्पलिंग होत नाही.</t>
+  </si>
+  <si>
+    <t>३२-बिट फ्लोट प्रोजेक्टच्या प्लेबॅकदरम्यान डाऊनसाम्पलिंग फ्लायवर उद्भवते, कारण ध्वनी मुखपृष्ठ एकतर १६-बिट किंवा २४-बिटवर कार्य करतात.</t>
+  </si>
+  <si>
+    <t>डाउनसॅम्पलिंगची आवश्यकता असताना ऑपरेशन करताना ओड्यासिटीमध्ये वापरल्या जाणार्‍या डाएथरचा प्रकार आपण निवडू शकता किंवा आपण काहीही सेट न करता पूर्णपणे मागे जाऊ शकता. डाएथर सेटिंग्ज पुन्हा प्राधान्यांच्या गुणवत्ता उपखंडात आहेत. "रीअल-टाईम डाइन्थ" ची सेटिंग परत खेळताना केल्या जाणाऱ्या डाइनिंगला आणि धारिका लिहिण्यासाठी "संपादन किंवा निर्यात" "उच्च-गुणवत्तेच्या "साठी लागू आहे. "रीअल-टाइम डाईथ" डीफॉल्टनुसार अक्षम केले जाते ("काहीही नाही" वर सेट केले जाते), जेणेकरून प्ले आणि ध्वनिमुद्रणादरम्यान संगणक प्रोसेसरवरील भार कमी होईल. "रीअल-टाइम डाईथ" सेटिंगचा प्रकल्प ध्वनी डेटा किंवा निर्यात केलेल्या गीतपट्टाच्या गुणवत्तेवर कोणताही परिणाम होत नाही.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Rectangular", "Triangular" and "Shaped" types of dither are simply different methods for randomizing the rounding process. The rectangular method can be thought of as like the roll of a die - any number has the same random probability of surfacing. The character of rectangular dither noise is low level white noise. The triangular method is characterized as a quieter, more constant, and higher pitched hiss than rectangular noise (sometimes called blue noise). </t>
+  </si>
+  <si>
+    <t>Shaped dither is noise with a carefully contoured frequency content that puts most of the randomization at frequencies we can hear least easily. Shaped dither is the least audible at normal levels of amplification and is the default for the "High-quality conversion" setting.</t>
+  </si>
+  <si>
+    <t>आयताकृती, "त्रिकोणी" आणि "आकाराचे" प्रकार या गोलाकार प्रक्रियेचे यादृच्छिकरण करण्यासाठी फक्त भिन्न पद्धती आहेत. आयताकृती पध्दतीचा मरण करण्याच्या रोल प्रमाणेच विचार केला जाऊ शकतो - कोणत्याही संख्येवर सरफेसिंगची यादृच्छिक संभाव्यता समान असते. आयताकृती दोना आवाजांचे वैशिष्ट्य म्हणजे निम्न स्तरीय पांढरा आवाज. त्रिकोणी पद्धतीने आयताकृती आवाज (कधीकधी निळा आवाज असे म्हणतात) पेक्षा शांत, अधिक स्थिर आणि उच्च पिच फिकट म्हणून वैशिष्ट्यीकृत केले जाते.</t>
+  </si>
+  <si>
+    <t>आकारात एक काळजीपूर्वक समोराची वारंवारता सामग्रीसह आवाज आहे ज्यामुळे बहुतेक यादृच्छिकरण आपण वारंवारता ऐकू शकतो. आकारात वाढ होण्याच्या सर्वसाधारण स्तरावर कमीतकमी ऐकण्यायोग्य आहे आणि "उच्च-गुणवत्तेचे रूपांतरण" सेटिंग करीता डीफॉल्ट आहे.</t>
+  </si>
+  <si>
+    <t>डाएथर निर्यातीवर लागू  - तपशीलवार स्पष्टीकरण</t>
+  </si>
+  <si>
+    <t>डाएथर केवळ उच्च बिट खोलीपासून कमी बिट खोलीत रूपांतरित करतानाच लागू केले जाते. डब्ल्यूएव्ही किंवा इतर कॉम्प्रेसप्रेस ध्वनी स्वरूपात निर्यात करणे सर्व परिस्थितींमध्ये अक्षरशः हानी नसते. तथापि ओड्यासिटी प्राधान्यांमधील सेटिंग्ज (खाली पहा) च्या आधारावर काही प्रकारच्या कॉम्प्रेसप्रेस ऑडिओ एक्सपोर्टसह ध्वनी डेटामध्ये खूपच लहान बदल होऊ शकतात.</t>
+  </si>
+  <si>
+    <t>३२-बिट पीसीएम डब्ल्यूएव्ही स्वरूपनात निर्यात करणे १००% हानि रहित आहे - कोठेही डाएथरिंग लागू केलेले नाही.</t>
+  </si>
+  <si>
+    <t>२४-बिट पीसीएम डब्ल्यूएव्ही स्वरूपनात निर्यात करणे जवळजवळ -१३० डीबीच्या पीक डाएथर लेव्हलसह पातळ केले जाऊ शकते</t>
+  </si>
+  <si>
+    <t>१६-बिट पीसीएम डब्ल्यूएव्ही स्वरूपात निर्यात करणे जवळजवळ -८० डीबीच्या पीक डाएथर पातळीसह डाएथर१ केले जाऊ शकते</t>
+  </si>
+  <si>
+    <t>१६-बिटवर निर्यात करताना, -३२७६८ ते +३२७६७ च्या पट्टीवर जास्तीत जास्त "त्रुटी" +/- ३ आहे. १६-बिट ध्वनी केवळ या प्रमाणात जवळच्या अंकीच अचूक असू शकतात.</t>
+  </si>
+  <si>
+    <t>२४-बिटवर निर्यात करताना, -८३८८६०८ ते +८३८८६०७ च्या पट्टीवर जास्तीत जास्त "त्रुटी" +/- ३ असते. सध्याच्या काळात, ध्वनी इलेक्ट्रॉनिक्सची स्थिती २४-बिट स्वरुपावर ढकलून तयार केल्यापेक्षा जास्त अयोग्य प्रदर्शन दर्शविते.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी ३२-बिट फ्लोट क्रमांकांचा वापर करुन गणना करते, जे अविश्वसनीय अचूकता प्रदान करते (श्रेणी ध्वनी मुखपृष्ठाच्या अगदी उत्कृष्ट शीर्षापेक्षा अगदी चांगले). जर ओड्यासिटीला रिझोल्यूशन १६-बिट पर्यंत कमी करण्याची आवश्यकता असेल तर "राउंडिंग ऑफ" त्रुटी असतील. प्रत्येक नमुना मूल्य घेऊन आणि त्यास जवळच्या १६-बिट मूल्यामध्ये रूपांतरित करून जर साध्या "राउंडिंग" केले गेले तर आउटपुटमधील "स्टेपनेस" परिणाम होईल जे विशेषतः अत्यंत शांत ध्वनींनी ऐकू येईल. हे टाळण्यासाठी, ओड्यासिटी रूपांतरणात "डाएथर" लागू करते - हे बर्‍याचदा ग्राफिक्समध्ये "अँटी-अलायझिंग" ची तुलना केली जाते जे वक्रांच्या सुस्तपणासाठी वापरले जाते. मूल्ये नेहमी जवळच्या १६-बिट मूल्याकडे वळविण्याऐवजी, डाएथरिंग केल्यामुळे राउंडिंगमध्ये काही प्रमाणात यादृच्छिकता लागू होते जेणेकरून उद्भवणारे चरण टाळता येतील.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीकडे ३ दिशानिर्देश कसे होते यासाठी ते वैकल्पिक अल्गोरिदम आहेत आणि ते "संपादन मेनू&gt; प्राधान्ये&gt; गुणवत्ता" मध्ये आढळतात. त्यानंतरची सेटिंग्ज "उच्च गुणवत्ता रूपांतरण" वर लागू होतात. उपलब्ध पर्याय असे आहेत: काहीही नाही (कोठेही नाही), आयत, त्रिकोण आणि आकार. या सेटिंग्जमधील फरक खूप सूक्ष्म आहेत आणि कोणताही फरक लक्षात घेण्यासाठी आपल्याला चांगल्या उपकरणांसह काळजीपूर्वक ऐकणे आवश्यक आहे. सामान्यत: "त्रिकोण" किंवा "आकार" सर्वोत्तम (व्यक्तिनिष्ठ) निकाल देईल.</t>
+  </si>
+  <si>
+    <t>जर हे सक्षम केले असेल तर छद्म यादृच्छिक भिन्नता अचूक रूपांतरांवर लागू केली जातील जेणेकरून गोल नेहमीच त्याच दिशेने होत नाही. गोलाकार संख्या सांख्यिकीय दृष्टिकोनातून कमी बिट खोलीवर सर्वात जवळच्या मूल्यामध्ये रूपांतरित होण्याची अधिक शक्यता असते. नमुना मूल्य अचूक संख्येच्या अगदी जवळ असेल तर ते त्या नंबरवर रूपांतरित होण्याची अधिक शक्यता असते. रूपांतरित मूल्यांवर याचा एक गुळगुळीत प्रभाव आहे, परिणामी ध्वनी सिग्नल अगदी साध्या गोलाकारापेक्षा जास्त वाटेल. अत्यंत कमी मोठेपणाच्या पातळीवर, हे यादृच्छिकरण खूप निम्न स्तराचा आवाज म्हणून ऐकला जाऊ शकतो, परंतु संभाव्यतेच्या वक्रांचे आकार देऊन हे कमी केले जाऊ शकते, आणि म्हणूनच आवाजाची वारंवारता सामग्री.</t>
+  </si>
+  <si>
+    <t>आकारातील डाएथर (ओड्यासिटी डीफॉल्ट) मध्ये अन्य प्रकारांपेक्षा उच्च पीक मोठेपणा आहे, परंतु तो आवाज अत्यंत उच्च वारंवारतेच्या श्रेणीमध्ये केंद्रित आहे जेथे तो कमी ऐकू येईल.</t>
+  </si>
+  <si>
+    <t>आयत एकतर त्रिकोण म्हणून समान ध्वनी मोठेपणा तयार करतो परंतु यादृच्छिकरणात अगदी कमी प्रमाणात (+/- १ बिट च्या क्रमाने) वारंवारता वितरण अगदी समप्रमाणात असते, जसे की ते पांढर्‍या आवाजाच्या जवळपास असते. इतर दोन प्रकारांपेक्षा वेगळा, आयत निरपेक्ष शांततेत आवाज जोडत नाही.</t>
+  </si>
+  <si>
+    <t>३२-बिट ध्वनीसह ओड्यासिटीमध्ये काम करताना, सामान्यत: उच्च गुणवत्तेच्या रूपांतरण सेटिंग्जमध्ये सामान्यतः सक्षम केले जाणे आवश्यक असते (ते डीफॉल्टनुसार असते). मूळ आउटपुटपेक्षा कमी आउटपुट आउटपुट असेल तरच लागू होईल. उच्च बिट खोलीपासून खालच्या थोड्या खोलीत रुपांतरित केल्याने अपरिहार्यपणे चुकीचे होऊ शकतात (कारण खालच्या भागाची खोली कमी अचूक आहे). एकलचा वापर केल्यामुळे संगीतामध्ये या चुकीच्या गोष्टी कमी लक्षात येण्यासारख्या होतात. बहुतेक प्रकरणांमध्ये, त्रिकोण किंवा आकारातील रंगाचा विशेषणात्मक परिणाम मिळतात.</t>
+  </si>
+  <si>
+    <t>नियम अपवाद आहेः आपण १६-बिटमध्ये ध्वनिमुद्रण केले असल्यास आणि केवळ साधी संपादन करत असाल (कट, हटवा, पेस्ट करा, ट्रिम करा ...) आणि कोणतीही प्रक्रिया न केल्यास (वर्धित करा, समान करा, वारंवारता फिल्टर ...) सर्वात जास्त अचूकतेसाठी "काहीही नाही" वर सेट केले जाऊ शकते. या प्रकरणात, निर्यात करण्यापूर्वी ३२-बिट ऑपरेशन्स नसल्यामुळे तिथून पुढे जाण्याचा कोणताही फायदा होणार नाही. १६-बिट वर १६-बिट गीतपट्टा निर्यात करणे "एकतर नाही" वर सेट केल्याने नुकसान होणार नाही. २४-बिट गीतपट्टावरुन अक्षम केलेल्या २४-बिट धारिका स्वरूपनात 24-बिट गीतपट्टामधून निर्यात केल्यास हे लागू होते.</t>
+  </si>
+  <si>
+    <t>जेव्हा जेव्हा ध्वनीवर प्रक्रिया होते तेव्हा संपूर्ण ३२-बिट (फ्लोट) वापरून सर्वोच्च गुणवत्ता प्राप्त केली जाईल. लक्षात घ्या की ३२-बिट ध्वनी धारिका १६-बिट ध्वनी धारिके१च्या दुप्पट आहेत.</t>
   </si>
 </sst>
 </file>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -678,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -776,8 +776,8 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -798,8 +798,8 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -810,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -820,8 +820,8 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -829,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -840,10 +840,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -851,10 +851,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -862,10 +862,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -873,10 +873,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -884,10 +884,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -895,10 +895,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -906,10 +906,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -917,10 +917,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -928,10 +928,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -939,10 +939,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -950,10 +950,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -961,10 +961,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -972,10 +972,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -983,10 +983,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -994,10 +994,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1005,10 +1005,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1016,10 +1016,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1027,10 +1027,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1038,10 +1038,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
